--- a/inventario/Plugin/Excel/Ingresos/Almacen/Ingresos del Almacen.xlsx
+++ b/inventario/Plugin/Excel/Ingresos/Almacen/Ingresos del Almacen.xlsx
@@ -15,59 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
-  <si>
-    <t>N° Almacen</t>
-  </si>
-  <si>
-    <t>Departamento</t>
-  </si>
-  <si>
-    <t>Encargado</t>
-  </si>
-  <si>
-    <t>Código</t>
-  </si>
-  <si>
-    <t>Descriptión</t>
-  </si>
-  <si>
-    <t>U/M</t>
-  </si>
-  <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
-    <t>Costo Unitario</t>
-  </si>
-  <si>
-    <t>Fecha Registro</t>
-  </si>
-  <si>
-    <t>Mantenimiento</t>
-  </si>
-  <si>
-    <t>Admin Master (Administrador)</t>
-  </si>
-  <si>
-    <t>KIT DE TALADRO Y ATORNILLADOR DE IMPACTO, INALAMBRICO, CON CARGADOR Y DOS BATERIAS, 20 VOLTIOS</t>
-  </si>
-  <si>
-    <t>C/U</t>
-  </si>
-  <si>
-    <t>2022-10-04</t>
-  </si>
-  <si>
-    <t>Baltazar Alexander Marinero Perez (Cliente)</t>
-  </si>
-  <si>
-    <t>CUERPO TERMINAL DE 1</t>
-  </si>
-  <si>
-    <t>2022-10-05</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,143 +349,14 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="true" style="0"/>
-    <col min="2" max="2" width="10" customWidth="true" style="0"/>
-    <col min="3" max="3" width="34.86" customWidth="true" style="0"/>
-    <col min="4" max="4" width="32.43" customWidth="true" style="0"/>
-    <col min="5" max="5" width="53.57" customWidth="true" style="0"/>
-    <col min="6" max="6" width="5.14" customWidth="true" style="0"/>
-    <col min="7" max="7" width="17.57" customWidth="true" style="0"/>
-    <col min="8" max="8" width="19.71" customWidth="true" style="0"/>
-    <col min="9" max="9" width="13.19" customWidth="true" style="0"/>
-    <col min="10" max="10" width="13" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>70302062</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>0.0</v>
-      </c>
-      <c r="H2">
-        <v>168.0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>70302062</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>0.0</v>
-      </c>
-      <c r="H3">
-        <v>168.0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>70205603</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4">
-        <v>1.0</v>
-      </c>
-      <c r="H4">
-        <v>2.2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
